--- a/qPCR_CFX/Project_info_template.xlsx
+++ b/qPCR_CFX/Project_info_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://joinnioz-my.sharepoint.com/personal/rob_de_beer_nioz_nl/Documents/Data/qPCR/Last_test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://joinnioz-my.sharepoint.com/personal/maartje_brouwer_nioz_nl/Documents/Documenten/GitHub/molecular_tools/qPCR_CFX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{56FAFF82-07C9-4BF3-9975-EEAE7CF8B36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5F0EC77-2212-45E1-AAAE-AE89F4538F30}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{56FAFF82-07C9-4BF3-9975-EEAE7CF8B36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B003010D-BA1B-44B8-AA69-44EC6E07B0B1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="20760" windowHeight="13200" xr2:uid="{48D02422-2922-4BBF-88F2-2FB5FB46ECA9}"/>
+    <workbookView xWindow="60" yWindow="16080" windowWidth="20760" windowHeight="13200" xr2:uid="{48D02422-2922-4BBF-88F2-2FB5FB46ECA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Project info</t>
   </si>
@@ -129,6 +129,24 @@
   </si>
   <si>
     <t>CV% copies threshold (%)</t>
+  </si>
+  <si>
+    <t>qPCR instrument</t>
+  </si>
+  <si>
+    <t>Bio-Rad CFX Opus Real-Time PCR Systems / Biorad CFX96 Real-Time PCR System</t>
+  </si>
+  <si>
+    <t>qPCR plate</t>
+  </si>
+  <si>
+    <t>Bio-Rad Hard-Shell® 96-Well PCR Plates, low profile, thin wall, skirted, white/clear #HSP9601</t>
+  </si>
+  <si>
+    <t>Bio-Rad Microseal 'B' PCR Plate Sealing Film, adhesive, optical #MSB1001B</t>
+  </si>
+  <si>
+    <t>Seal</t>
   </si>
 </sst>
 </file>
@@ -180,10 +198,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A2CB67-8BF9-4246-8222-41202A873092}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,72 +621,96 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="2">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="2">
-        <v>40</v>
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>14</v>
       </c>
     </row>
